--- a/downloaded_files/MCNS326_Lecture-35415.xlsx
+++ b/downloaded_files/MCNS326_Lecture-35415.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -103,15 +103,6 @@
   </x:si>
   <x:si>
     <x:t>KYRILLOS LOTFY SAMIR LOTFY METWASHLH</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1210413</x:t>
-  </x:si>
-  <x:si>
-    <x:t>مايفى عماد مملوك فخرى</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Maive Emad Mamlouk Fakhry</x:t>
   </x:si>
   <x:si>
     <x:t>1230106</x:t>
@@ -299,7 +290,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E18" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E17" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -599,7 +590,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T18"/>
+  <x:dimension ref="A1:T17"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -946,7 +937,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45909.539587963</x:v>
+        <x:v>45907.4144954861</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -978,7 +969,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.4144954861</x:v>
+        <x:v>45907.4169326389</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1010,7 +1001,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.4169326389</x:v>
+        <x:v>45907.6655889236</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1042,7 +1033,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.6655889236</x:v>
+        <x:v>45907.4201078704</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1074,7 +1065,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.4201078704</x:v>
+        <x:v>45907.4214491898</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1106,7 +1097,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.4214491898</x:v>
+        <x:v>45912.8991826042</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1138,7 +1129,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45912.8991826042</x:v>
+        <x:v>45907.4951275463</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1170,7 +1161,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.4951275463</x:v>
+        <x:v>45907.4197487269</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1187,38 +1178,6 @@
       <x:c r="R17" s="2" t="s"/>
       <x:c r="S17" s="2" t="s"/>
       <x:c r="T17" s="2" t="s"/>
-    </x:row>
-    <x:row r="18" spans="1:20">
-      <x:c r="A18" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B18" s="2" t="s">
-        <x:v>53</x:v>
-      </x:c>
-      <x:c r="C18" s="2" t="s">
-        <x:v>54</x:v>
-      </x:c>
-      <x:c r="D18" s="2" t="s">
-        <x:v>55</x:v>
-      </x:c>
-      <x:c r="E18" s="3">
-        <x:v>45907.4197487269</x:v>
-      </x:c>
-      <x:c r="F18" s="2" t="s"/>
-      <x:c r="G18" s="2" t="s"/>
-      <x:c r="H18" s="2" t="s"/>
-      <x:c r="I18" s="2" t="s"/>
-      <x:c r="J18" s="2" t="s"/>
-      <x:c r="K18" s="2" t="s"/>
-      <x:c r="L18" s="2" t="s"/>
-      <x:c r="M18" s="2" t="s"/>
-      <x:c r="N18" s="2" t="s"/>
-      <x:c r="O18" s="2" t="s"/>
-      <x:c r="P18" s="2" t="s"/>
-      <x:c r="Q18" s="2" t="s"/>
-      <x:c r="R18" s="2" t="s"/>
-      <x:c r="S18" s="2" t="s"/>
-      <x:c r="T18" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MCNS326_Lecture-35415.xlsx
+++ b/downloaded_files/MCNS326_Lecture-35415.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -157,15 +157,6 @@
   </x:si>
   <x:si>
     <x:t>Yasmin baher kamel hassan</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1220297</x:t>
-  </x:si>
-  <x:si>
-    <x:t>يوسف عادل محمد حمزاوي</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Youssef Hamzawi</x:t>
   </x:si>
   <x:si>
     <x:t>1230292</x:t>
@@ -290,7 +281,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E17" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E16" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -590,7 +581,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T17"/>
+  <x:dimension ref="A1:T16"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1129,7 +1120,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.4951275463</x:v>
+        <x:v>45907.4197487269</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1146,38 +1137,6 @@
       <x:c r="R16" s="2" t="s"/>
       <x:c r="S16" s="2" t="s"/>
       <x:c r="T16" s="2" t="s"/>
-    </x:row>
-    <x:row r="17" spans="1:20">
-      <x:c r="A17" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B17" s="2" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="C17" s="2" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="D17" s="2" t="s">
-        <x:v>52</x:v>
-      </x:c>
-      <x:c r="E17" s="3">
-        <x:v>45907.4197487269</x:v>
-      </x:c>
-      <x:c r="F17" s="2" t="s"/>
-      <x:c r="G17" s="2" t="s"/>
-      <x:c r="H17" s="2" t="s"/>
-      <x:c r="I17" s="2" t="s"/>
-      <x:c r="J17" s="2" t="s"/>
-      <x:c r="K17" s="2" t="s"/>
-      <x:c r="L17" s="2" t="s"/>
-      <x:c r="M17" s="2" t="s"/>
-      <x:c r="N17" s="2" t="s"/>
-      <x:c r="O17" s="2" t="s"/>
-      <x:c r="P17" s="2" t="s"/>
-      <x:c r="Q17" s="2" t="s"/>
-      <x:c r="R17" s="2" t="s"/>
-      <x:c r="S17" s="2" t="s"/>
-      <x:c r="T17" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MCNS326_Lecture-35415.xlsx
+++ b/downloaded_files/MCNS326_Lecture-35415.xlsx
@@ -33,15 +33,6 @@
     <x:t>Date</x:t>
   </x:si>
   <x:si>
-    <x:t>1220219</x:t>
-  </x:si>
-  <x:si>
-    <x:t>أندرو وليد جرجس كيرلس</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Andrew Walid Girgis</x:t>
-  </x:si>
-  <x:si>
     <x:t>1220216</x:t>
   </x:si>
   <x:si>
@@ -157,6 +148,15 @@
   </x:si>
   <x:si>
     <x:t>Yasmin baher kamel hassan</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1220297</x:t>
+  </x:si>
+  <x:si>
+    <x:t>يوسف عادل محمد حمزاوي</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Youssef Hamzawi</x:t>
   </x:si>
   <x:si>
     <x:t>1230292</x:t>
@@ -672,7 +672,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="E2" s="3">
-        <x:v>45907.4622113426</x:v>
+        <x:v>45907.4169731481</x:v>
       </x:c>
       <x:c r="F2" s="2" t="s"/>
       <x:c r="G2" s="2" t="s"/>
@@ -704,7 +704,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E3" s="3">
-        <x:v>45907.4169731481</x:v>
+        <x:v>45907.4216175926</x:v>
       </x:c>
       <x:c r="F3" s="2" t="s"/>
       <x:c r="G3" s="2" t="s"/>
@@ -736,7 +736,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45907.4216175926</x:v>
+        <x:v>45907.4205327199</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -768,7 +768,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45907.4205327199</x:v>
+        <x:v>45907.4144332523</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -800,7 +800,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45907.4144332523</x:v>
+        <x:v>45907.4208704861</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -832,7 +832,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45907.4208704861</x:v>
+        <x:v>45907.415941088</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -864,7 +864,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45907.415941088</x:v>
+        <x:v>45907.4219669792</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -896,7 +896,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45907.4219669792</x:v>
+        <x:v>45907.4144954861</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -928,7 +928,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45907.4144954861</x:v>
+        <x:v>45907.4169326389</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -960,7 +960,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.4169326389</x:v>
+        <x:v>45907.6655889236</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -992,7 +992,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.6655889236</x:v>
+        <x:v>45907.4201078704</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1024,7 +1024,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.4201078704</x:v>
+        <x:v>45907.4214491898</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1056,7 +1056,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.4214491898</x:v>
+        <x:v>45912.8991826042</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1088,7 +1088,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45912.8991826042</x:v>
+        <x:v>45927.5467511227</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>

--- a/downloaded_files/MCNS326_Lecture-35415.xlsx
+++ b/downloaded_files/MCNS326_Lecture-35415.xlsx
@@ -42,6 +42,15 @@
     <x:t>AHMED WALAA ABDELKHALEK ABDELRAHMAN</x:t>
   </x:si>
   <x:si>
+    <x:t>1230192</x:t>
+  </x:si>
+  <x:si>
+    <x:t>سارة احمد علي سليمان</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sara Ahmed Ali Soliman</x:t>
+  </x:si>
+  <x:si>
     <x:t>1230196</x:t>
   </x:si>
   <x:si>
@@ -148,15 +157,6 @@
   </x:si>
   <x:si>
     <x:t>Yasmin baher kamel hassan</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1220297</x:t>
-  </x:si>
-  <x:si>
-    <x:t>يوسف عادل محمد حمزاوي</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Youssef Hamzawi</x:t>
   </x:si>
   <x:si>
     <x:t>1230292</x:t>
@@ -704,7 +704,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E3" s="3">
-        <x:v>45907.4216175926</x:v>
+        <x:v>45929.0117313657</x:v>
       </x:c>
       <x:c r="F3" s="2" t="s"/>
       <x:c r="G3" s="2" t="s"/>
@@ -736,7 +736,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45907.4205327199</x:v>
+        <x:v>45907.4216175926</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -768,7 +768,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45907.4144332523</x:v>
+        <x:v>45907.4205327199</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -800,7 +800,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45907.4208704861</x:v>
+        <x:v>45907.4144332523</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -832,7 +832,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45907.415941088</x:v>
+        <x:v>45907.4208704861</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -864,7 +864,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45907.4219669792</x:v>
+        <x:v>45907.415941088</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -896,7 +896,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45907.4144954861</x:v>
+        <x:v>45907.4219669792</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -928,7 +928,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45907.4169326389</x:v>
+        <x:v>45907.4144954861</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -960,7 +960,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.6655889236</x:v>
+        <x:v>45907.4169326389</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -992,7 +992,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.4201078704</x:v>
+        <x:v>45907.6655889236</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1024,7 +1024,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.4214491898</x:v>
+        <x:v>45907.4201078704</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1056,7 +1056,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45912.8991826042</x:v>
+        <x:v>45907.4214491898</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1088,7 +1088,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45927.5467511227</x:v>
+        <x:v>45912.8991826042</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
